--- a/data/08_reporting/reporting_mrs90/mrs90_predictor_dictionary.xlsx
+++ b/data/08_reporting/reporting_mrs90/mrs90_predictor_dictionary.xlsx
@@ -2737,10 +2737,10 @@
         </is>
       </c>
       <c r="C58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -3257,10 +3257,10 @@
         </is>
       </c>
       <c r="C71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -3497,10 +3497,10 @@
         </is>
       </c>
       <c r="C77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -3737,10 +3737,10 @@
         </is>
       </c>
       <c r="C83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -4057,10 +4057,10 @@
         </is>
       </c>
       <c r="C91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
